--- a/SGSST/SG-SST AÑO 2022/29_Indicadores/Indicadores segun Resolucion 0312/Indicador Incidencia de la enfermedad laboral.xlsx
+++ b/SGSST/SG-SST AÑO 2022/29_Indicadores/Indicadores segun Resolucion 0312/Indicador Incidencia de la enfermedad laboral.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dayana\EXCAVACIONES CORREA MEJIA S.A.S\SGSST\SG-SST AÑO 2022\29_Indicadores\Indicadores segun Resolucion 0312\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2022\29_Indicadores\Indicadores segun Resolucion 0312\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1E722-89F3-417B-8A93-05E99EDA3E4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$H$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>usuario</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -152,9 +147,6 @@
   </si>
   <si>
     <t>AÑO 2022</t>
-  </si>
-  <si>
-    <t>PRIMER PERIODO AÑO 2022</t>
   </si>
   <si>
     <r>
@@ -178,11 +170,14 @@
 Al cierre del  año 2022, no se han presentado reporte de enfermedades de origen laboral, ni se  han presentado presuntas enfermerdades de origen laboral. </t>
     </r>
   </si>
+  <si>
+    <t>CIERRE AÑO 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,6 +491,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,9 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,7 +637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -736,7 +730,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -761,7 +754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PRIMER PERIODO AÑO 2022</c:v>
+                  <c:v>CIERRE AÑO 2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1843,14 +1836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1863,246 +1856,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="34" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="B10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>0</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="28">
         <f>+B31</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="29">
         <f>IFERROR((B11/B12)*100000,"")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -2215,6 +2208,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="E15:H28"/>
@@ -2231,7 +2225,6 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
